--- a/ProyectoJava/proyecto_quimica/src/main/java/org/clases/excels/datos.xlsx
+++ b/ProyectoJava/proyecto_quimica/src/main/java/org/clases/excels/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" state="visible" r:id="rId3"/>
@@ -17,6 +17,7 @@
     <sheet name="ubicaciones" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="productos" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="quimicos" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Hoja10" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="259">
   <si>
     <t xml:space="preserve">Reactivos</t>
   </si>
@@ -1182,11 +1183,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1211,23 +1212,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1470,8 +1454,8 @@
   </sheetPr>
   <dimension ref="B1:L159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B135" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6228,6 +6212,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="0" t="e">
+        <f aca="false">VLOOKUP(E1,ubicaciones!$A$1:$b$g513,2,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -6235,7 +6362,7 @@
   </sheetPr>
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6645,7 +6772,7 @@
   </sheetPr>
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6877,10 +7004,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6895,7 +7022,6 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -6904,7 +7030,6 @@
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -6913,7 +7038,6 @@
       <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -6922,7 +7046,6 @@
       <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -6931,7 +7054,6 @@
       <c r="B5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -6940,7 +7062,6 @@
       <c r="B6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -6949,7 +7070,6 @@
       <c r="B7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -6958,7 +7078,6 @@
       <c r="B8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -6967,7 +7086,6 @@
       <c r="B9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -6976,7 +7094,6 @@
       <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -6985,7 +7102,6 @@
       <c r="B11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -6994,7 +7110,6 @@
       <c r="B12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -7003,7 +7118,6 @@
       <c r="B13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -7012,49 +7126,6 @@
       <c r="B14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7074,7 +7145,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7087,7 +7158,7 @@
       <c r="A1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7095,7 +7166,7 @@
       <c r="A2" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7125,14 +7196,14 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,23 +7448,23 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7401,10 +7472,10 @@
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7412,10 +7483,10 @@
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7423,10 +7494,10 @@
       <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7434,10 +7505,10 @@
       <c r="A5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7445,10 +7516,10 @@
       <c r="A6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7456,10 +7527,10 @@
       <c r="A7" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7467,10 +7538,10 @@
       <c r="A8" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7478,10 +7549,10 @@
       <c r="A9" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7489,10 +7560,10 @@
       <c r="A10" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7500,10 +7571,10 @@
       <c r="A11" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,10 +7582,10 @@
       <c r="A12" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7522,10 +7593,10 @@
       <c r="A13" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7547,14 +7618,14 @@
   </sheetPr>
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -7563,19 +7634,19 @@
       <c r="C1" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="1" t="n">
         <f aca="false">VLOOKUP(E1,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -7584,19 +7655,19 @@
       <c r="C2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">VLOOKUP(E2,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7605,19 +7676,19 @@
       <c r="C3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">VLOOKUP(E3,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -7626,19 +7697,19 @@
       <c r="C4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">VLOOKUP(E4,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -7647,19 +7718,19 @@
       <c r="C5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">VLOOKUP(E5,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -7668,19 +7739,19 @@
       <c r="C6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">VLOOKUP(E6,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -7689,19 +7760,19 @@
       <c r="C7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">VLOOKUP(E7,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -7710,19 +7781,19 @@
       <c r="C8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">VLOOKUP(E8,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -7731,19 +7802,19 @@
       <c r="C9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">VLOOKUP(E9,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -7752,19 +7823,19 @@
       <c r="C10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">VLOOKUP(E10,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7773,19 +7844,19 @@
       <c r="C11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">VLOOKUP(E11,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -7794,19 +7865,19 @@
       <c r="C12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">VLOOKUP(E12,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -7815,19 +7886,19 @@
       <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">VLOOKUP(E13,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -7836,19 +7907,19 @@
       <c r="C14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">VLOOKUP(E14,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7857,19 +7928,19 @@
       <c r="C15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">VLOOKUP(E15,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -7878,19 +7949,19 @@
       <c r="C16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">VLOOKUP(E16,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -7899,19 +7970,19 @@
       <c r="C17" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">VLOOKUP(E17,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -7920,19 +7991,19 @@
       <c r="C18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">VLOOKUP(E18,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -7941,19 +8012,19 @@
       <c r="C19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">VLOOKUP(E19,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -7962,19 +8033,19 @@
       <c r="C20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">VLOOKUP(E20,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -7983,19 +8054,19 @@
       <c r="C21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">VLOOKUP(E21,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -8004,19 +8075,19 @@
       <c r="C22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <f aca="false">VLOOKUP(E22,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -8025,19 +8096,19 @@
       <c r="C23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">VLOOKUP(E23,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -8046,19 +8117,19 @@
       <c r="C24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">VLOOKUP(E24,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -8067,19 +8138,19 @@
       <c r="C25" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">VLOOKUP(E25,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -8088,19 +8159,19 @@
       <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">VLOOKUP(E26,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -8109,19 +8180,19 @@
       <c r="C27" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <f aca="false">VLOOKUP(E27,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -8130,19 +8201,19 @@
       <c r="C28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <f aca="false">VLOOKUP(E28,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -8151,19 +8222,19 @@
       <c r="C29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <f aca="false">VLOOKUP(E29,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -8172,19 +8243,19 @@
       <c r="C30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <f aca="false">VLOOKUP(E30,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -8193,19 +8264,19 @@
       <c r="C31" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <f aca="false">VLOOKUP(E31,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -8214,19 +8285,19 @@
       <c r="C32" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <f aca="false">VLOOKUP(E32,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -8235,19 +8306,19 @@
       <c r="C33" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <f aca="false">VLOOKUP(E33,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -8256,19 +8327,19 @@
       <c r="C34" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <f aca="false">VLOOKUP(E34,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -8277,19 +8348,19 @@
       <c r="C35" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <f aca="false">VLOOKUP(E35,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -8298,19 +8369,19 @@
       <c r="C36" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <f aca="false">VLOOKUP(E36,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -8319,19 +8390,19 @@
       <c r="C37" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <f aca="false">VLOOKUP(E37,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -8340,19 +8411,19 @@
       <c r="C38" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <f aca="false">VLOOKUP(E38,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -8361,19 +8432,19 @@
       <c r="C39" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <f aca="false">VLOOKUP(E39,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -8382,19 +8453,19 @@
       <c r="C40" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <f aca="false">VLOOKUP(E40,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -8403,19 +8474,19 @@
       <c r="C41" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <f aca="false">VLOOKUP(E41,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -8424,19 +8495,19 @@
       <c r="C42" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <f aca="false">VLOOKUP(E42,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -8445,19 +8516,19 @@
       <c r="C43" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <f aca="false">VLOOKUP(E43,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -8466,19 +8537,19 @@
       <c r="C44" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <f aca="false">VLOOKUP(E44,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -8487,19 +8558,19 @@
       <c r="C45" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <f aca="false">VLOOKUP(E45,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -8508,19 +8579,19 @@
       <c r="C46" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <f aca="false">VLOOKUP(E46,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -8529,19 +8600,19 @@
       <c r="C47" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <f aca="false">VLOOKUP(E47,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -8550,19 +8621,19 @@
       <c r="C48" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <f aca="false">VLOOKUP(E48,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -8571,19 +8642,19 @@
       <c r="C49" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <f aca="false">VLOOKUP(E49,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -8592,19 +8663,19 @@
       <c r="C50" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <f aca="false">VLOOKUP(E50,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -8613,19 +8684,19 @@
       <c r="C51" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <f aca="false">VLOOKUP(E51,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -8634,19 +8705,19 @@
       <c r="C52" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <f aca="false">VLOOKUP(E52,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -8655,19 +8726,19 @@
       <c r="C53" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <f aca="false">VLOOKUP(E53,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -8676,19 +8747,19 @@
       <c r="C54" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <f aca="false">VLOOKUP(E54,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -8697,19 +8768,19 @@
       <c r="C55" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <f aca="false">VLOOKUP(E55,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -8718,19 +8789,19 @@
       <c r="C56" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <f aca="false">VLOOKUP(E56,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -8739,19 +8810,19 @@
       <c r="C57" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <f aca="false">VLOOKUP(E57,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -8760,19 +8831,19 @@
       <c r="C58" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <f aca="false">VLOOKUP(E58,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -8781,19 +8852,19 @@
       <c r="C59" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <f aca="false">VLOOKUP(E59,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -8802,19 +8873,19 @@
       <c r="C60" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <f aca="false">VLOOKUP(E60,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -8823,19 +8894,19 @@
       <c r="C61" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <f aca="false">VLOOKUP(E61,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -8844,19 +8915,19 @@
       <c r="C62" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <f aca="false">VLOOKUP(E62,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -8865,19 +8936,19 @@
       <c r="C63" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <f aca="false">VLOOKUP(E63,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -8886,19 +8957,19 @@
       <c r="C64" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <f aca="false">VLOOKUP(E64,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -8907,19 +8978,19 @@
       <c r="C65" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <f aca="false">VLOOKUP(E65,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -8928,19 +8999,19 @@
       <c r="C66" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <f aca="false">VLOOKUP(E66,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -8949,19 +9020,19 @@
       <c r="C67" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <f aca="false">VLOOKUP(E67,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -8970,19 +9041,19 @@
       <c r="C68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <f aca="false">VLOOKUP(E68,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -8991,19 +9062,19 @@
       <c r="C69" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <f aca="false">VLOOKUP(E69,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -9012,19 +9083,19 @@
       <c r="C70" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <f aca="false">VLOOKUP(E70,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -9033,19 +9104,19 @@
       <c r="C71" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <f aca="false">VLOOKUP(E71,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -9054,19 +9125,19 @@
       <c r="C72" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <f aca="false">VLOOKUP(E72,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -9075,19 +9146,19 @@
       <c r="C73" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <f aca="false">VLOOKUP(E73,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -9096,19 +9167,19 @@
       <c r="C74" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <f aca="false">VLOOKUP(E74,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -9117,19 +9188,19 @@
       <c r="C75" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="n">
         <f aca="false">VLOOKUP(E75,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -9138,19 +9209,19 @@
       <c r="C76" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="1" t="n">
         <f aca="false">VLOOKUP(E76,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -9159,19 +9230,19 @@
       <c r="C77" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="1" t="n">
         <f aca="false">VLOOKUP(E77,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -9180,19 +9251,19 @@
       <c r="C78" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="1" t="n">
         <f aca="false">VLOOKUP(E78,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -9201,19 +9272,19 @@
       <c r="C79" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <f aca="false">VLOOKUP(E79,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -9222,19 +9293,19 @@
       <c r="C80" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="1" t="n">
         <f aca="false">VLOOKUP(E80,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -9243,19 +9314,19 @@
       <c r="C81" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <f aca="false">VLOOKUP(E81,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -9264,19 +9335,19 @@
       <c r="C82" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <f aca="false">VLOOKUP(E82,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -9285,19 +9356,19 @@
       <c r="C83" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="1" t="n">
         <f aca="false">VLOOKUP(E83,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -9306,19 +9377,19 @@
       <c r="C84" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="1" t="n">
         <f aca="false">VLOOKUP(E84,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -9327,19 +9398,19 @@
       <c r="C85" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <f aca="false">VLOOKUP(E85,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -9348,19 +9419,19 @@
       <c r="C86" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="1" t="n">
         <f aca="false">VLOOKUP(E86,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -9369,19 +9440,19 @@
       <c r="C87" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="1" t="n">
         <f aca="false">VLOOKUP(E87,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -9390,19 +9461,19 @@
       <c r="C88" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="1" t="n">
         <f aca="false">VLOOKUP(E88,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -9411,19 +9482,19 @@
       <c r="C89" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="1" t="n">
         <f aca="false">VLOOKUP(E89,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -9432,19 +9503,19 @@
       <c r="C90" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="1" t="n">
         <f aca="false">VLOOKUP(E90,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -9453,19 +9524,19 @@
       <c r="C91" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <f aca="false">VLOOKUP(E91,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -9474,19 +9545,19 @@
       <c r="C92" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="1" t="n">
         <f aca="false">VLOOKUP(E92,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -9495,19 +9566,19 @@
       <c r="C93" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="1" t="n">
         <f aca="false">VLOOKUP(E93,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -9516,19 +9587,19 @@
       <c r="C94" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="1" t="n">
         <f aca="false">VLOOKUP(E94,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -9537,19 +9608,19 @@
       <c r="C95" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="1" t="n">
         <f aca="false">VLOOKUP(E95,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -9558,19 +9629,19 @@
       <c r="C96" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="1" t="n">
         <f aca="false">VLOOKUP(E96,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -9579,19 +9650,19 @@
       <c r="C97" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <f aca="false">VLOOKUP(E97,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -9600,19 +9671,19 @@
       <c r="C98" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="1" t="n">
         <f aca="false">VLOOKUP(E98,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -9621,19 +9692,19 @@
       <c r="C99" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="1" t="n">
         <f aca="false">VLOOKUP(E99,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -9642,19 +9713,19 @@
       <c r="C100" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="1" t="n">
         <f aca="false">VLOOKUP(E100,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -9663,19 +9734,19 @@
       <c r="C101" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="1" t="n">
         <f aca="false">VLOOKUP(E101,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -9684,19 +9755,19 @@
       <c r="C102" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="1" t="n">
         <f aca="false">VLOOKUP(E102,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -9705,19 +9776,19 @@
       <c r="C103" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <f aca="false">VLOOKUP(E103,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -9726,19 +9797,19 @@
       <c r="C104" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="1" t="n">
         <f aca="false">VLOOKUP(E104,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -9747,19 +9818,19 @@
       <c r="C105" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="1" t="n">
         <f aca="false">VLOOKUP(E105,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -9768,19 +9839,19 @@
       <c r="C106" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="1" t="n">
         <f aca="false">VLOOKUP(E106,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -9789,19 +9860,19 @@
       <c r="C107" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="1" t="n">
         <f aca="false">VLOOKUP(E107,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -9810,19 +9881,19 @@
       <c r="C108" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="1" t="n">
         <f aca="false">VLOOKUP(E108,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -9831,19 +9902,19 @@
       <c r="C109" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <f aca="false">VLOOKUP(E109,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -9852,19 +9923,19 @@
       <c r="C110" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="1" t="n">
         <f aca="false">VLOOKUP(E110,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -9873,19 +9944,19 @@
       <c r="C111" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="1" t="n">
         <f aca="false">VLOOKUP(E111,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -9894,19 +9965,19 @@
       <c r="C112" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="1" t="n">
         <f aca="false">VLOOKUP(E112,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -9915,19 +9986,19 @@
       <c r="C113" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="1" t="n">
         <f aca="false">VLOOKUP(E113,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -9936,19 +10007,19 @@
       <c r="C114" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="n">
         <f aca="false">VLOOKUP(E114,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -9957,19 +10028,19 @@
       <c r="C115" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <f aca="false">VLOOKUP(E115,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -9978,19 +10049,19 @@
       <c r="C116" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="n">
         <f aca="false">VLOOKUP(E116,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -9999,19 +10070,19 @@
       <c r="C117" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="1" t="n">
         <f aca="false">VLOOKUP(E117,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B118" s="8" t="s">
@@ -10020,19 +10091,19 @@
       <c r="C118" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="1" t="n">
         <f aca="false">VLOOKUP(E118,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B119" s="8" t="s">
@@ -10041,19 +10112,19 @@
       <c r="C119" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="1" t="n">
         <f aca="false">VLOOKUP(E119,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -10062,19 +10133,19 @@
       <c r="C120" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="1" t="n">
         <f aca="false">VLOOKUP(E120,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -10083,19 +10154,19 @@
       <c r="C121" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <f aca="false">VLOOKUP(E121,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -10104,19 +10175,19 @@
       <c r="C122" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="1" t="n">
         <f aca="false">VLOOKUP(E122,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -10125,19 +10196,19 @@
       <c r="C123" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="1" t="n">
         <f aca="false">VLOOKUP(E123,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -10146,19 +10217,19 @@
       <c r="C124" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="1" t="n">
         <f aca="false">VLOOKUP(E124,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -10167,19 +10238,19 @@
       <c r="C125" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="1" t="n">
         <f aca="false">VLOOKUP(E125,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
@@ -10188,19 +10259,19 @@
       <c r="C126" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="1" t="n">
         <f aca="false">VLOOKUP(E126,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -10209,19 +10280,19 @@
       <c r="C127" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="1" t="n">
         <f aca="false">VLOOKUP(E127,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -10230,19 +10301,19 @@
       <c r="C128" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="1" t="n">
         <f aca="false">VLOOKUP(E128,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -10251,19 +10322,19 @@
       <c r="C129" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="1" t="n">
         <f aca="false">VLOOKUP(E129,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -10272,19 +10343,19 @@
       <c r="C130" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="1" t="n">
         <f aca="false">VLOOKUP(E130,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -10293,19 +10364,19 @@
       <c r="C131" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="1" t="n">
         <f aca="false">VLOOKUP(E131,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
@@ -10314,19 +10385,19 @@
       <c r="C132" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="1" t="n">
         <f aca="false">VLOOKUP(E132,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -10335,19 +10406,19 @@
       <c r="C133" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" s="1" t="n">
         <f aca="false">VLOOKUP(E133,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -10356,19 +10427,19 @@
       <c r="C134" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" s="1" t="n">
         <f aca="false">VLOOKUP(E134,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -10377,19 +10448,19 @@
       <c r="C135" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="1" t="n">
         <f aca="false">VLOOKUP(E135,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -10398,19 +10469,19 @@
       <c r="C136" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="1" t="n">
         <f aca="false">VLOOKUP(E136,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -10419,19 +10490,19 @@
       <c r="C137" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="1" t="n">
         <f aca="false">VLOOKUP(E137,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -10440,19 +10511,19 @@
       <c r="C138" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="1" t="n">
         <f aca="false">VLOOKUP(E138,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -10461,19 +10532,19 @@
       <c r="C139" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="1" t="n">
         <f aca="false">VLOOKUP(E139,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -10482,19 +10553,19 @@
       <c r="C140" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="1" t="n">
         <f aca="false">VLOOKUP(E140,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
@@ -10503,19 +10574,19 @@
       <c r="C141" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" s="1" t="n">
         <f aca="false">VLOOKUP(E141,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -10524,19 +10595,19 @@
       <c r="C142" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="1" t="n">
         <f aca="false">VLOOKUP(E142,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B143" s="8" t="s">
@@ -10545,19 +10616,19 @@
       <c r="C143" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" s="1" t="n">
         <f aca="false">VLOOKUP(E143,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
@@ -10566,19 +10637,19 @@
       <c r="C144" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="1" t="n">
         <f aca="false">VLOOKUP(E144,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B145" s="8" t="s">
@@ -10587,19 +10658,19 @@
       <c r="C145" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="1" t="n">
         <f aca="false">VLOOKUP(E145,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -10608,19 +10679,19 @@
       <c r="C146" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" s="1" t="n">
         <f aca="false">VLOOKUP(E146,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="A147" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B147" s="8" t="s">
@@ -10629,19 +10700,19 @@
       <c r="C147" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" s="1" t="n">
         <f aca="false">VLOOKUP(E147,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="A148" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B148" s="8" t="s">
@@ -10650,19 +10721,19 @@
       <c r="C148" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" s="1" t="n">
         <f aca="false">VLOOKUP(E148,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="A149" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B149" s="8" t="s">
@@ -10671,19 +10742,19 @@
       <c r="C149" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="1" t="n">
         <f aca="false">VLOOKUP(E149,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="A150" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B150" s="8" t="s">
@@ -10692,19 +10763,19 @@
       <c r="C150" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="1" t="n">
         <f aca="false">VLOOKUP(E150,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="A151" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B151" s="8" t="s">
@@ -10713,19 +10784,19 @@
       <c r="C151" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" s="1" t="n">
         <f aca="false">VLOOKUP(E151,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="A152" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B152" s="8" t="s">
@@ -10734,19 +10805,19 @@
       <c r="C152" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" s="1" t="n">
         <f aca="false">VLOOKUP(E152,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="A153" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B153" s="8" t="s">
@@ -10755,19 +10826,19 @@
       <c r="C153" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153" s="1" t="n">
         <f aca="false">VLOOKUP(E153,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="A154" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B154" s="8" t="s">
@@ -10776,19 +10847,19 @@
       <c r="C154" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" s="1" t="n">
         <f aca="false">VLOOKUP(E154,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="A155" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B155" s="8" t="s">
@@ -10797,19 +10868,19 @@
       <c r="C155" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" s="1" t="n">
         <f aca="false">VLOOKUP(E155,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="A156" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B156" s="8" t="s">
@@ -10818,13 +10889,13 @@
       <c r="C156" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156" s="1" t="n">
         <f aca="false">VLOOKUP(E156,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
@@ -10847,7 +10918,7 @@
   </sheetPr>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10855,11 +10926,11 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="15.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="11.53"/>
   </cols>
   <sheetData>

--- a/ProyectoJava/proyecto_quimica/src/main/java/org/clases/excels/datos.xlsx
+++ b/ProyectoJava/proyecto_quimica/src/main/java/org/clases/excels/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" state="visible" r:id="rId3"/>
@@ -17,7 +17,8 @@
     <sheet name="ubicaciones" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="productos" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="quimicos" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Hoja10" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="prod_aux" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="materiales" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="266">
   <si>
     <t xml:space="preserve">Reactivos</t>
   </si>
@@ -806,17 +807,39 @@
   </si>
   <si>
     <t xml:space="preserve">Jeringa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estantería 0, balda 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No viene especificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No viene especificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“534031”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“531030”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“539010”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“539007”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m\-yyyy"/>
     <numFmt numFmtId="166" formatCode="d\-m\-yyyy"/>
     <numFmt numFmtId="167" formatCode="m/yyyy"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1022,7 +1045,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1201,6 +1224,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1485,7 @@
   </sheetPr>
   <dimension ref="B1:L159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6217,19 +6248,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -6241,107 +6275,467 @@
       <c r="E1" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="0" t="e">
-        <f aca="false">VLOOKUP(E1,ubicaciones!$A$1:$b$g513,2,0)</f>
-        <v>#NAME?</v>
+      <c r="F1" s="1" t="n">
+        <f aca="false">VLOOKUP(E1,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">VLOOKUP(E2,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">VLOOKUP(E3,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">VLOOKUP(E4,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">VLOOKUP(E5,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">VLOOKUP(E6,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">VLOOKUP(E7,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">VLOOKUP(E8,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>246</v>
+      <c r="B2" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>246</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>246</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>246</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>246</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6362,8 +6756,8 @@
   </sheetPr>
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6773,7 +7167,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7449,11 +7843,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.52"/>
   </cols>
   <sheetData>
@@ -7591,7 +7986,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>13</v>
@@ -7616,13 +8011,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -7644,6 +8042,9 @@
         <f aca="false">VLOOKUP(E1,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G1" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -7665,6 +8066,9 @@
         <f aca="false">VLOOKUP(E2,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -7686,6 +8090,9 @@
         <f aca="false">VLOOKUP(E3,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -7707,6 +8114,9 @@
         <f aca="false">VLOOKUP(E4,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -7728,6 +8138,9 @@
         <f aca="false">VLOOKUP(E5,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -7749,6 +8162,9 @@
         <f aca="false">VLOOKUP(E6,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -7770,6 +8186,9 @@
         <f aca="false">VLOOKUP(E7,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -7791,6 +8210,9 @@
         <f aca="false">VLOOKUP(E8,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -7812,6 +8234,9 @@
         <f aca="false">VLOOKUP(E9,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -7833,6 +8258,9 @@
         <f aca="false">VLOOKUP(E10,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -7854,6 +8282,9 @@
         <f aca="false">VLOOKUP(E11,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -7873,6 +8304,9 @@
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">VLOOKUP(E12,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7896,6 +8330,9 @@
         <f aca="false">VLOOKUP(E13,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -7917,6 +8354,9 @@
         <f aca="false">VLOOKUP(E14,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -7938,6 +8378,9 @@
         <f aca="false">VLOOKUP(E15,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -7957,6 +8400,9 @@
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">VLOOKUP(E16,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7980,6 +8426,9 @@
         <f aca="false">VLOOKUP(E17,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>1</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -8001,6 +8450,9 @@
         <f aca="false">VLOOKUP(E18,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -8022,6 +8474,9 @@
         <f aca="false">VLOOKUP(E19,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -8043,6 +8498,9 @@
         <f aca="false">VLOOKUP(E20,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -8064,6 +8522,9 @@
         <f aca="false">VLOOKUP(E21,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -8085,6 +8546,9 @@
         <f aca="false">VLOOKUP(E22,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -8106,6 +8570,9 @@
         <f aca="false">VLOOKUP(E23,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -8127,6 +8594,9 @@
         <f aca="false">VLOOKUP(E24,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -8148,6 +8618,9 @@
         <f aca="false">VLOOKUP(E25,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -8169,6 +8642,9 @@
         <f aca="false">VLOOKUP(E26,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -8190,6 +8666,9 @@
         <f aca="false">VLOOKUP(E27,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -8211,6 +8690,9 @@
         <f aca="false">VLOOKUP(E28,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -8232,6 +8714,9 @@
         <f aca="false">VLOOKUP(E29,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -8253,6 +8738,9 @@
         <f aca="false">VLOOKUP(E30,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -8274,6 +8762,9 @@
         <f aca="false">VLOOKUP(E31,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -8295,6 +8786,9 @@
         <f aca="false">VLOOKUP(E32,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -8316,6 +8810,9 @@
         <f aca="false">VLOOKUP(E33,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -8337,6 +8834,9 @@
         <f aca="false">VLOOKUP(E34,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -8358,6 +8858,9 @@
         <f aca="false">VLOOKUP(E35,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -8379,6 +8882,9 @@
         <f aca="false">VLOOKUP(E36,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -8400,6 +8906,9 @@
         <f aca="false">VLOOKUP(E37,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -8421,6 +8930,9 @@
         <f aca="false">VLOOKUP(E38,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -8442,6 +8954,9 @@
         <f aca="false">VLOOKUP(E39,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -8463,6 +8978,9 @@
         <f aca="false">VLOOKUP(E40,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -8484,6 +9002,9 @@
         <f aca="false">VLOOKUP(E41,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -8505,6 +9026,9 @@
         <f aca="false">VLOOKUP(E42,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -8526,6 +9050,9 @@
         <f aca="false">VLOOKUP(E43,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -8547,6 +9074,9 @@
         <f aca="false">VLOOKUP(E44,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -8568,6 +9098,9 @@
         <f aca="false">VLOOKUP(E45,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -8589,6 +9122,9 @@
         <f aca="false">VLOOKUP(E46,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -8610,6 +9146,9 @@
         <f aca="false">VLOOKUP(E47,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>2</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -8631,6 +9170,9 @@
         <f aca="false">VLOOKUP(E48,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -8652,6 +9194,9 @@
         <f aca="false">VLOOKUP(E49,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -8673,6 +9218,9 @@
         <f aca="false">VLOOKUP(E50,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -8694,6 +9242,9 @@
         <f aca="false">VLOOKUP(E51,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -8715,6 +9266,9 @@
         <f aca="false">VLOOKUP(E52,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -8736,6 +9290,9 @@
         <f aca="false">VLOOKUP(E53,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -8757,6 +9314,9 @@
         <f aca="false">VLOOKUP(E54,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -8778,6 +9338,9 @@
         <f aca="false">VLOOKUP(E55,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -8799,6 +9362,9 @@
         <f aca="false">VLOOKUP(E56,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -8820,6 +9386,9 @@
         <f aca="false">VLOOKUP(E57,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -8841,6 +9410,9 @@
         <f aca="false">VLOOKUP(E58,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -8862,6 +9434,9 @@
         <f aca="false">VLOOKUP(E59,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -8883,6 +9458,9 @@
         <f aca="false">VLOOKUP(E60,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -8904,6 +9482,9 @@
         <f aca="false">VLOOKUP(E61,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -8925,6 +9506,9 @@
         <f aca="false">VLOOKUP(E62,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -8946,6 +9530,9 @@
         <f aca="false">VLOOKUP(E63,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -8967,6 +9554,9 @@
         <f aca="false">VLOOKUP(E64,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -8988,6 +9578,9 @@
         <f aca="false">VLOOKUP(E65,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G65" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -9009,6 +9602,9 @@
         <f aca="false">VLOOKUP(E66,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G66" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -9030,6 +9626,9 @@
         <f aca="false">VLOOKUP(E67,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -9051,6 +9650,9 @@
         <f aca="false">VLOOKUP(E68,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G68" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -9072,6 +9674,9 @@
         <f aca="false">VLOOKUP(E69,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -9093,6 +9698,9 @@
         <f aca="false">VLOOKUP(E70,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -9114,6 +9722,9 @@
         <f aca="false">VLOOKUP(E71,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -9135,6 +9746,9 @@
         <f aca="false">VLOOKUP(E72,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G72" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -9156,6 +9770,9 @@
         <f aca="false">VLOOKUP(E73,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G73" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -9177,6 +9794,9 @@
         <f aca="false">VLOOKUP(E74,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G74" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -9198,6 +9818,9 @@
         <f aca="false">VLOOKUP(E75,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G75" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -9219,6 +9842,9 @@
         <f aca="false">VLOOKUP(E76,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G76" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -9240,6 +9866,9 @@
         <f aca="false">VLOOKUP(E77,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G77" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -9261,6 +9890,9 @@
         <f aca="false">VLOOKUP(E78,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G78" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -9282,6 +9914,9 @@
         <f aca="false">VLOOKUP(E79,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>3</v>
       </c>
+      <c r="G79" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -9303,6 +9938,9 @@
         <f aca="false">VLOOKUP(E80,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -9324,6 +9962,9 @@
         <f aca="false">VLOOKUP(E81,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -9345,6 +9986,9 @@
         <f aca="false">VLOOKUP(E82,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
@@ -9366,6 +10010,9 @@
         <f aca="false">VLOOKUP(E83,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -9387,6 +10034,9 @@
         <f aca="false">VLOOKUP(E84,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -9408,6 +10058,9 @@
         <f aca="false">VLOOKUP(E85,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G85" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -9429,6 +10082,9 @@
         <f aca="false">VLOOKUP(E86,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G86" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -9450,6 +10106,9 @@
         <f aca="false">VLOOKUP(E87,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G87" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -9471,6 +10130,9 @@
         <f aca="false">VLOOKUP(E88,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -9492,6 +10154,9 @@
         <f aca="false">VLOOKUP(E89,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -9513,6 +10178,9 @@
         <f aca="false">VLOOKUP(E90,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -9534,6 +10202,9 @@
         <f aca="false">VLOOKUP(E91,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -9555,6 +10226,9 @@
         <f aca="false">VLOOKUP(E92,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -9576,6 +10250,9 @@
         <f aca="false">VLOOKUP(E93,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -9597,6 +10274,9 @@
         <f aca="false">VLOOKUP(E94,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -9618,6 +10298,9 @@
         <f aca="false">VLOOKUP(E95,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -9639,6 +10322,9 @@
         <f aca="false">VLOOKUP(E96,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -9660,6 +10346,9 @@
         <f aca="false">VLOOKUP(E97,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G97" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
@@ -9681,6 +10370,9 @@
         <f aca="false">VLOOKUP(E98,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G98" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -9702,6 +10394,9 @@
         <f aca="false">VLOOKUP(E99,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -9723,6 +10418,9 @@
         <f aca="false">VLOOKUP(E100,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -9744,6 +10442,9 @@
         <f aca="false">VLOOKUP(E101,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -9765,6 +10466,9 @@
         <f aca="false">VLOOKUP(E102,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -9786,6 +10490,9 @@
         <f aca="false">VLOOKUP(E103,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G103" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
@@ -9807,6 +10514,9 @@
         <f aca="false">VLOOKUP(E104,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G104" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -9828,6 +10538,9 @@
         <f aca="false">VLOOKUP(E105,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
@@ -9849,6 +10562,9 @@
         <f aca="false">VLOOKUP(E106,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
@@ -9870,6 +10586,9 @@
         <f aca="false">VLOOKUP(E107,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G107" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -9891,6 +10610,9 @@
         <f aca="false">VLOOKUP(E108,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G108" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
@@ -9912,6 +10634,9 @@
         <f aca="false">VLOOKUP(E109,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -9933,6 +10658,9 @@
         <f aca="false">VLOOKUP(E110,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>4</v>
       </c>
+      <c r="G110" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -9954,6 +10682,9 @@
         <f aca="false">VLOOKUP(E111,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G111" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
@@ -9975,6 +10706,9 @@
         <f aca="false">VLOOKUP(E112,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G112" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
@@ -9996,6 +10730,9 @@
         <f aca="false">VLOOKUP(E113,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -10017,6 +10754,9 @@
         <f aca="false">VLOOKUP(E114,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G114" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -10038,6 +10778,9 @@
         <f aca="false">VLOOKUP(E115,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G115" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -10059,6 +10802,9 @@
         <f aca="false">VLOOKUP(E116,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G116" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -10080,6 +10826,9 @@
         <f aca="false">VLOOKUP(E117,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G117" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -10101,6 +10850,9 @@
         <f aca="false">VLOOKUP(E118,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G118" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -10122,6 +10874,9 @@
         <f aca="false">VLOOKUP(E119,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G119" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -10143,6 +10898,9 @@
         <f aca="false">VLOOKUP(E120,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
@@ -10164,6 +10922,9 @@
         <f aca="false">VLOOKUP(E121,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G121" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
@@ -10185,6 +10946,9 @@
         <f aca="false">VLOOKUP(E122,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G122" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
@@ -10206,6 +10970,9 @@
         <f aca="false">VLOOKUP(E123,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G123" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
@@ -10227,6 +10994,9 @@
         <f aca="false">VLOOKUP(E124,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G124" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
@@ -10248,6 +11018,9 @@
         <f aca="false">VLOOKUP(E125,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G125" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
@@ -10269,6 +11042,9 @@
         <f aca="false">VLOOKUP(E126,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G126" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
@@ -10290,6 +11066,9 @@
         <f aca="false">VLOOKUP(E127,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G127" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -10311,6 +11090,9 @@
         <f aca="false">VLOOKUP(E128,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G128" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
@@ -10332,6 +11114,9 @@
         <f aca="false">VLOOKUP(E129,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G129" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
@@ -10353,6 +11138,9 @@
         <f aca="false">VLOOKUP(E130,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G130" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -10374,6 +11162,9 @@
         <f aca="false">VLOOKUP(E131,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G131" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
@@ -10395,6 +11186,9 @@
         <f aca="false">VLOOKUP(E132,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G132" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
@@ -10416,6 +11210,9 @@
         <f aca="false">VLOOKUP(E133,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G133" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -10437,6 +11234,9 @@
         <f aca="false">VLOOKUP(E134,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G134" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -10458,6 +11258,9 @@
         <f aca="false">VLOOKUP(E135,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>5</v>
       </c>
+      <c r="G135" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -10479,6 +11282,9 @@
         <f aca="false">VLOOKUP(E136,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -10500,6 +11306,9 @@
         <f aca="false">VLOOKUP(E137,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G137" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -10521,6 +11330,9 @@
         <f aca="false">VLOOKUP(E138,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G138" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -10542,6 +11354,9 @@
         <f aca="false">VLOOKUP(E139,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G139" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
@@ -10563,6 +11378,9 @@
         <f aca="false">VLOOKUP(E140,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G140" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -10584,6 +11402,9 @@
         <f aca="false">VLOOKUP(E141,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -10605,6 +11426,9 @@
         <f aca="false">VLOOKUP(E142,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -10626,6 +11450,9 @@
         <f aca="false">VLOOKUP(E143,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G143" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -10647,6 +11474,9 @@
         <f aca="false">VLOOKUP(E144,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G144" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -10668,6 +11498,9 @@
         <f aca="false">VLOOKUP(E145,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G145" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -10689,6 +11522,9 @@
         <f aca="false">VLOOKUP(E146,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G146" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -10710,6 +11546,9 @@
         <f aca="false">VLOOKUP(E147,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G147" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -10731,6 +11570,9 @@
         <f aca="false">VLOOKUP(E148,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G148" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -10752,6 +11594,9 @@
         <f aca="false">VLOOKUP(E149,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G149" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -10773,6 +11618,9 @@
         <f aca="false">VLOOKUP(E150,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G150" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -10794,6 +11642,9 @@
         <f aca="false">VLOOKUP(E151,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G151" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -10815,6 +11666,9 @@
         <f aca="false">VLOOKUP(E152,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G152" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -10836,6 +11690,9 @@
         <f aca="false">VLOOKUP(E153,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -10857,6 +11714,9 @@
         <f aca="false">VLOOKUP(E154,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G154" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -10878,6 +11738,9 @@
         <f aca="false">VLOOKUP(E155,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
       </c>
+      <c r="G155" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -10898,6 +11761,513 @@
       <c r="F156" s="1" t="n">
         <f aca="false">VLOOKUP(E156,ubicaciones!$A$1:$B$13,2,0)</f>
         <v>6</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B157" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <f aca="false">VLOOKUP(E157,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C158" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <f aca="false">VLOOKUP(E158,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <f aca="false">VLOOKUP(E159,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <f aca="false">VLOOKUP(E160,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C161" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F161" s="1" t="n">
+        <f aca="false">VLOOKUP(E161,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C162" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <f aca="false">VLOOKUP(E162,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F163" s="1" t="n">
+        <f aca="false">VLOOKUP(E163,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C164" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="1" t="n">
+        <f aca="false">VLOOKUP(E164,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C165" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F165" s="1" t="n">
+        <f aca="false">VLOOKUP(E165,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F166" s="1" t="n">
+        <f aca="false">VLOOKUP(E166,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F167" s="1" t="n">
+        <f aca="false">VLOOKUP(E167,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C168" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F168" s="1" t="n">
+        <f aca="false">VLOOKUP(E168,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F169" s="1" t="n">
+        <f aca="false">VLOOKUP(E169,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C170" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <f aca="false">VLOOKUP(E170,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C171" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F171" s="1" t="n">
+        <f aca="false">VLOOKUP(E171,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C172" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <f aca="false">VLOOKUP(E172,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C173" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <f aca="false">VLOOKUP(E173,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C174" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <f aca="false">VLOOKUP(E174,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C175" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <f aca="false">VLOOKUP(E175,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C176" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <f aca="false">VLOOKUP(E176,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C177" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <f aca="false">VLOOKUP(E177,ubicaciones!$A$1:$B$13,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
